--- a/medicine/Enfance/Didier_Jeunesse/Didier_Jeunesse.xlsx
+++ b/medicine/Enfance/Didier_Jeunesse/Didier_Jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Didier Jeunesse est une maison d'édition française spécialisée en littérature jeunesse. Elle est issue du développement autonome d'un département spécifique des éditions Didier créé en 1988[1].
+Didier Jeunesse est une maison d'édition française spécialisée en littérature jeunesse. Elle est issue du développement autonome d'un département spécifique des éditions Didier créé en 1988.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection « Les Petits Lascars » a été initialement créée chez Didier dans le cadre d'un projet de l'équipe du CREDIF de l'École normale supérieure de Saint-Cloud[2] destiné à l'apprentissage du français pour les enfants d'âge préscolaire, de familles francophones ou non.
-Michèle Moreau, initialement éditrice scolaire, passionnée par les comptines[3], est convaincue que le projet peut intéresser un public moins restreint que celui de l'enseignement pré-élémentaire et scolaire et décide donc de l'élargir[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection « Les Petits Lascars » a été initialement créée chez Didier dans le cadre d'un projet de l'équipe du CREDIF de l'École normale supérieure de Saint-Cloud destiné à l'apprentissage du français pour les enfants d'âge préscolaire, de familles francophones ou non.
+Michèle Moreau, initialement éditrice scolaire, passionnée par les comptines, est convaincue que le projet peut intéresser un public moins restreint que celui de l'enseignement pré-élémentaire et scolaire et décide donc de l'élargir.
 Plusieurs collections sont lancées :
 « Buissonnière » (1990), albums documentaires autour de la nature,
 « Les Petits Cousins » (1992), recueils bilingues de comptines traditionnelles avec cassettes,
@@ -528,7 +542,7 @@
 Livre-disque "Berceuses pour petits noctambules"  Coup de coeur 2014 de l'Académie Charles Cros. Auteur/compositeur/interprète : Gibus. Illustratrice : Marie Mahler
 Livre-disque "Tam-tam dans la brousse'" Auteur/compositeur/interprète : Gibus. Illustrateur : Charles Dutertre.
 Depuis quelques années, Didier jeunesse élargit son champ d'activité à l'ensemble de la littérature jeunesse :
-2010 voit l'arrivée de la bande dessinée pour les petits avec Tétine Man[4] 
+2010 voit l'arrivée de la bande dessinée pour les petits avec Tétine Man 
 En 2011, c'est le début de la fiction, avec la publication du premier roman pour enfants à partir de 10/11 ans : Sublutetia, La Révolte de Hutan, de Eric Senabre qui signe le premier volume d'une trilogie, un récit d'aventures sous Paris, avec des inspirations steampunk à la Jules Verne. 
 Des CD reprenant les grands succès sont diffusés dans le circuit des disquaires par Harmonia Mundi.
 Depuis janvier 2003, les éditions Didier Jeunesse, rattachées directement au groupe Alexandre Hatier appartenant à Hachette Livre, sont devenues d'un point de vue organisationnel et financier indépendantes des éditions Didier. Elles ajoutent officiellement à leurs missions celles d'éditeur musical et de producteur[source secondaire nécessaire].
@@ -560,7 +574,9 @@
           <t>Livres-disques Comptines du monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comptines et berceuses du baobab, Chantal Grosléziat, Elodie Nouhen et Paul Mindy. 2002. (ISBN 9782278052776)
 Comptines et berceuses de vanille, Nathalie Soussana et Magalie Attiogobé. Paris 2020.  (ISBN 9782278091348).
